--- a/Tier3.xlsx
+++ b/Tier3.xlsx
@@ -27,7 +27,7 @@
     <t>Tier 3 Pricing</t>
   </si>
   <si>
-    <t>12PM</t>
+    <t>5PM</t>
   </si>
 </sst>
 </file>

--- a/Tier3.xlsx
+++ b/Tier3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1620" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="1640" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Tier 3 Pricing</t>
   </si>
   <si>
-    <t>5PM</t>
+    <t>9AM</t>
   </si>
 </sst>
 </file>

--- a/Tier3.xlsx
+++ b/Tier3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1640" windowWidth="35340" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="3260" yWindow="1060" windowWidth="31280" windowHeight="18040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>Tier 3 Pricing</t>
   </si>
   <si>
-    <t>9AM</t>
+    <t>5PM</t>
   </si>
 </sst>
 </file>
